--- a/Documentation/Pré-TPI Journal de bord.xlsx
+++ b/Documentation/Pré-TPI Journal de bord.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Camille.HEINTZ\Documents\GitHub\Pre-TPI_PortailWeb\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\GitHub\Pre-TPI\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Doc, planinng</t>
   </si>
@@ -83,10 +83,28 @@
     <t>Header, carcasse du site, recherche du fonctionnement des fichiers SASS</t>
   </si>
   <si>
-    <t>Mardi 13..3.2018</t>
-  </si>
-  <si>
     <t>Revoir MCD, réinstallation de mamp, changement d'idée pour l'affichage des abris, implémentation de google maps</t>
+  </si>
+  <si>
+    <t>Mardi 13.03.2018</t>
+  </si>
+  <si>
+    <t>Publipostage, comment l'implémenté sur un server web</t>
+  </si>
+  <si>
+    <t>Mardi 17.04.2018</t>
+  </si>
+  <si>
+    <t>Jeudi 19.04.2018</t>
+  </si>
+  <si>
+    <t>Jeudi 29.03.2018</t>
+  </si>
+  <si>
+    <t>Finalisation de la doc, abandon du code</t>
+  </si>
+  <si>
+    <t>J'ai essayer de debug les erreurs, sans succès</t>
   </si>
 </sst>
 </file>
@@ -405,16 +423,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="61" customWidth="1"/>
+    <col min="2" max="2" width="111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -424,9 +442,7 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1">
-        <v>43132</v>
-      </c>
+      <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -497,10 +513,34 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
-        <v>19</v>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
